--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject48.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject48.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.72856383847847117</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.93722787509806649</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -329,21 +329,21 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.8728544145123851</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.86740239339518777</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -352,7 +352,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>0.92935077059209159</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0</v>
+        <v>0.80166579701020813</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.67123575975878502</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.85543738486878707</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.6625530419302128</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="0">
-        <v>0</v>
+        <v>0.76577486560883146</v>
       </c>
       <c r="AA3" s="0">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.56920031058759413</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.88545447309657421</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.74485296258668665</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.67184613495673418</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.95622892660015402</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.98616252439679308</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="0">
-        <v>0</v>
+        <v>0.5479393610762433</v>
       </c>
       <c r="O5" s="0">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.98427473306925795</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.60532181419134212</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.88120263445916347</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>0.70869702288786707</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.82413904805790361</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.63503441034154129</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.72441312751801568</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.90176664548076046</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.61454883243994174</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.50769219265011434</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.5214507536629841</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.85056422623884265</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="0">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.53854959934854651</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.52334954534462907</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.64305046333478288</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.79789926530792576</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.70319293985647602</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.52019701148454733</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.9583433530407296</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.54608669335125004</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.75314709959278237</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.99613024542701223</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.90299395240326219</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.64496635352592213</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0</v>
+        <v>0.79483985185448414</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.63743685871053168</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.62636131322054989</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.86525886916928985</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.97641571714225051</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.62873972756608854</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.84778677704605909</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.98217819250784122</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.78467279854210881</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0</v>
+        <v>0.77854907901093906</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>0.91326143795681158</v>
       </c>
       <c r="F14" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.75408781533633928</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.68466197288589248</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.86146825822608775</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.75847606790694</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="0">
-        <v>0</v>
+        <v>0.61189477413833759</v>
       </c>
       <c r="X14" s="0">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="0">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>0</v>
+        <v>0.59708334461384915</v>
       </c>
       <c r="AU14" s="0">
-        <v>0</v>
+        <v>0.8127254425442173</v>
       </c>
       <c r="AV14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.6938822406336953</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.81164882666360394</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.51154205576349376</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.71740911685432807</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.7989771311656203</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.8410116085240309</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.64747056979648676</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0">
-        <v>0</v>
+        <v>0.86820098985602234</v>
       </c>
       <c r="Y16" s="0">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="0">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>0</v>
+        <v>0.6960535674296715</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.91578256637838673</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.94541371900446713</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.89664538388572579</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.87932664416782247</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.78197021442514836</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.79883161319474971</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>0</v>
+        <v>0.59882672378183677</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.94126944770436249</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.58793365015887444</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>0</v>
+        <v>0.63691156751227207</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>0</v>
+        <v>0.65502801248730369</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>0.81245075289144841</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.6232842992113159</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>0</v>
+        <v>0.56239039877922914</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.51048672530812267</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.94955408323488699</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.60445379004906163</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4508,22 +4508,22 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>0</v>
+        <v>0.96712708720464002</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.90036899145105009</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.60855481118811072</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.52938271442818641</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AY22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="0">
         <v>0</v>
@@ -4696,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0</v>
+        <v>0.99771497966381628</v>
       </c>
       <c r="N23" s="0">
-        <v>0</v>
+        <v>0.59197941158354372</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.52810724620394223</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.77981590113819843</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="0">
-        <v>0</v>
+        <v>0.58241713955834518</v>
       </c>
       <c r="Q24" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.61220889509913823</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.5234484925225098</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>0</v>
+        <v>0.87648938525850062</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.9980501910018611</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="0">
-        <v>0</v>
+        <v>0.65552708742175503</v>
       </c>
       <c r="AR25" s="0">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>0.81991840624012657</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>0</v>
+        <v>0.78456532771741072</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.56888417787388967</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.58322500426432267</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.78024172359698529</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.99261445222450839</v>
       </c>
       <c r="AE28" s="0">
-        <v>0</v>
+        <v>0.71615630231735783</v>
       </c>
       <c r="AF28" s="0">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="0">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>0</v>
+        <v>0.77178991545711673</v>
       </c>
     </row>
     <row r="29">
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0</v>
+        <v>0.63778248890812916</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.91243446708133003</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.81684660662940323</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.87933856514370345</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.67535172891177586</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.73449318985564449</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.83402955824088554</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.79487719718357175</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="0">
-        <v>0</v>
+        <v>0.9972574036435462</v>
       </c>
       <c r="AQ30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -6389,19 +6389,19 @@
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0</v>
+        <v>0.56121207119436167</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.63679908589893741</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.68132636503299637</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.74774099980268416</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="0">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>0</v>
+        <v>0.63896906785014318</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,25 +6601,25 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.76253532016629499</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.64919477212271837</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.8656277666342963</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.98316508805926861</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>0</v>
+        <v>0.81155105666194438</v>
       </c>
       <c r="AK32" s="0">
         <v>0</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="0">
         <v>0</v>
@@ -6813,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.87296416625057072</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.65654314149991611</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.55829787128022634</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>0</v>
+        <v>0.66137013064161854</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.51975620646817489</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.84101106119879132</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.70813790588976699</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>0</v>
+        <v>0.68074140721502885</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0</v>
+        <v>0.64488243962499237</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7222,25 +7222,25 @@
         <v>0</v>
       </c>
       <c r="AE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="0">
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.55645458896988209</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.74125751574776677</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.66771600722470748</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.92877015593254453</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0</v>
+        <v>0.52105921695482271</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
@@ -7431,25 +7431,25 @@
         <v>0</v>
       </c>
       <c r="AF36" s="0">
-        <v>0</v>
+        <v>0.88726388685179902</v>
       </c>
       <c r="AG36" s="0">
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.65136915883932378</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.81269281761759382</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.91213281257128453</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.56155386075473213</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.73283650200633221</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>0</v>
+        <v>0.55559041251670149</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.61821001343544379</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.5850766578661758</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.92351232955530094</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.5144937623115744</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="BL38" s="0">
-        <v>0</v>
+        <v>0.5452804681587391</v>
       </c>
       <c r="BM38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.73807309235473939</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.72428255945302844</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.66486725922874901</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>0</v>
+        <v>0.75985290187871901</v>
       </c>
       <c r="BG39" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.67593221378135981</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.78562686471828425</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.67202648037749846</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="BE40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF40" s="0">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0</v>
+        <v>0.98814870016466205</v>
       </c>
     </row>
     <row r="41">
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.56852824245635869</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.77089135340334858</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.98465188803309067</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.63785185776423992</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0</v>
+        <v>0.8725603943041218</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="0">
-        <v>0</v>
+        <v>0.67056953295142452</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
@@ -8691,22 +8691,22 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.74158838543627881</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.81766380027026875</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.53938047587153926</v>
       </c>
       <c r="AS42" s="0">
-        <v>0</v>
+        <v>0.96709262795030537</v>
       </c>
       <c r="AT42" s="0">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>0</v>
+        <v>0.5771560590870819</v>
       </c>
       <c r="Z43" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>0</v>
+        <v>0.80751400024692077</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.99866059827701359</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.83521692739218012</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="BA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>0</v>
+        <v>0.55915202598716296</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.59709194405555044</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.62385884510891398</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.90133384371731573</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="BM44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN44" s="0">
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>0</v>
+        <v>0.94538368002903839</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -9315,19 +9315,19 @@
         <v>0</v>
       </c>
       <c r="AP45" s="0">
-        <v>0</v>
+        <v>0.69607178268998926</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.5990541823731006</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.59483868190307965</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="0">
-        <v>0</v>
+        <v>0.52663377309349579</v>
       </c>
       <c r="AY45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9437,13 +9437,13 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>0</v>
+        <v>0.82940656137408242</v>
       </c>
       <c r="O46" s="0">
         <v>0</v>
       </c>
       <c r="P46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="0">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.60323582045391233</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.69081036207489932</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9581,10 +9581,10 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="0">
-        <v>0</v>
+        <v>0.60399747392231462</v>
       </c>
       <c r="O47" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9739,19 +9739,19 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.6921813395553218</v>
       </c>
       <c r="AX47" s="0">
-        <v>0</v>
+        <v>0.6476910497796553</v>
       </c>
       <c r="AY47" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.66036063435824899</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.75214697136221054</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.93556732386248975</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.50861624342407286</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.74552613605622697</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.63036798122965243</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.92804154008044648</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10354,34 +10354,34 @@
         <v>0</v>
       </c>
       <c r="AS50" s="0">
-        <v>0</v>
+        <v>0.80165398160104773</v>
       </c>
       <c r="AT50" s="0">
         <v>0</v>
       </c>
       <c r="AU50" s="0">
-        <v>0</v>
+        <v>0.94868466269389384</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.74590140967429042</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.71342519592618847</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
       </c>
       <c r="BB50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0</v>
+        <v>0.72977245144525493</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.65507764567056659</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.69298829017007857</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.60331791862818007</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.96069922649680839</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.68743585822039166</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.85639515920703579</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.93625236409024604</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.54454693111206609</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.80074732912500568</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.98469557628247806</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -11193,25 +11193,25 @@
         <v>0</v>
       </c>
       <c r="AX54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="0">
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.52350131272311917</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.73136348318299449</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.556041407577338</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.65537296888397067</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>0</v>
+        <v>0.92557720079560313</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.74507312335809373</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.66057553619243559</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.71423783790969242</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.7634863441585571</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.73224365861320995</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.70316909305778186</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.5392663354577345</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.59685380996500581</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="0">
         <v>0</v>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="AN57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.68480435417081664</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.8980615381748569</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.80688620642606934</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.60398109611060224</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>0</v>
+        <v>0.94423344620319161</v>
       </c>
       <c r="AH58" s="0">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>0</v>
+        <v>0.86091186359083594</v>
       </c>
       <c r="AN58" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0</v>
+        <v>0.51171770577914311</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.93444283044573617</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.78569718466325211</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.70611107558362263</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.72846394610202392</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.75911145946920011</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.97876389468691305</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.90620950368919839</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.92651498247517594</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.86934347122723388</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.68033997919291533</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.56413724944208432</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.97787916735679392</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.86856815579248936</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.70774189897667927</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12871,22 +12871,22 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.73893096427070981</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.81793633628110918</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.74248375411772038</v>
       </c>
       <c r="BM62" s="0">
-        <v>0</v>
+        <v>0.79712068863079388</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0</v>
+        <v>0.92701522327619634</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>0</v>
+        <v>0.93793235923304541</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>0</v>
+        <v>0.66337187239363882</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.63166785991411434</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.71991660003647628</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="0">
-        <v>0</v>
+        <v>0.75683761243475023</v>
       </c>
       <c r="AM64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.54297398423350374</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.68180682171671259</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.73385579978352422</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="AR65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="0">
         <v>0</v>
@@ -13495,22 +13495,22 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>0</v>
+        <v>0.57085821456966879</v>
       </c>
       <c r="BK65" s="0">
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.77520769345322638</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.95679326541115284</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.96581974988098274</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13617,10 +13617,10 @@
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>0</v>
+        <v>0.64617234765734044</v>
       </c>
       <c r="AI66" s="0">
-        <v>0</v>
+        <v>0.61878356578817817</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13707,19 +13707,19 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.62786169353187349</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>0</v>
+        <v>0.90695645881986242</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.61215793556677289</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.71271681771664053</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.5163870938895555</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>0</v>
+        <v>0.71786796842703282</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>0</v>
+        <v>0.8884681333340676</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.98778023373866053</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject48.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject48.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.72856383847847117</v>
+        <v>0.86740239339518777</v>
       </c>
       <c r="C1" s="0">
         <v>0.93722787509806649</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0.80166579701020813</v>
+        <v>0.92701522327619634</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.67123575975878502</v>
+        <v>0.93722787509806649</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0.85543738486878707</v>
       </c>
       <c r="E3" s="0">
-        <v>0.6625530419302128</v>
+        <v>0.67184613495673418</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.76577486560883146</v>
+        <v>0.81991840624012657</v>
       </c>
       <c r="AA3" s="0">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.56920031058759413</v>
+        <v>0.85543738486878707</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.88545447309657421</v>
+        <v>0.95622892660015402</v>
       </c>
       <c r="F4" s="0">
-        <v>0.74485296258668665</v>
+        <v>0.98427473306925795</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="0">
-        <v>0.5479393610762433</v>
+        <v>0.91326143795681158</v>
       </c>
       <c r="O5" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.60532181419134212</v>
+        <v>0.63503441034154129</v>
       </c>
       <c r="H6" s="0">
         <v>0.88120263445916347</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>0.70869702288786707</v>
+        <v>0.92935077059209159</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.82413904805790361</v>
+        <v>0.98616252439679308</v>
       </c>
       <c r="F7" s="0">
         <v>0.63503441034154129</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.61454883243994174</v>
+        <v>0.88120263445916347</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50769219265011434</v>
+        <v>0.72441312751801568</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.5214507536629841</v>
+        <v>0.52334954534462907</v>
       </c>
       <c r="J8" s="0">
         <v>0.85056422623884265</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.53854959934854651</v>
+        <v>0.90176664548076046</v>
       </c>
       <c r="H9" s="0">
         <v>0.52334954534462907</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.70319293985647602</v>
+        <v>0.85056422623884265</v>
       </c>
       <c r="I10" s="0">
-        <v>0.52019701148454733</v>
+        <v>0.64305046333478288</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.9583433530407296</v>
+        <v>0.99613024542701223</v>
       </c>
       <c r="L10" s="0">
-        <v>0.54608669335125004</v>
+        <v>0.63743685871053168</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.75314709959278237</v>
+        <v>0.79789926530792576</v>
       </c>
       <c r="J11" s="0">
         <v>0.99613024542701223</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0.79483985185448414</v>
+        <v>0.81245075289144841</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0.63743685871053168</v>
       </c>
       <c r="K12" s="0">
-        <v>0.62636131322054989</v>
+        <v>0.90299395240326219</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.62873972756608854</v>
+        <v>0.64496635352592213</v>
       </c>
       <c r="L13" s="0">
-        <v>0.84778677704605909</v>
+        <v>0.86525886916928985</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0.77854907901093906</v>
+        <v>0.99771497966381628</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.75408781533633928</v>
+        <v>0.97641571714225051</v>
       </c>
       <c r="M14" s="0">
-        <v>0.68466197288589248</v>
+        <v>0.98217819250784122</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0.86146825822608775</v>
       </c>
       <c r="P14" s="0">
-        <v>0.75847606790694</v>
+        <v>0.7989771311656203</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>0.59708334461384915</v>
+        <v>0.82940656137408242</v>
       </c>
       <c r="AU14" s="0">
         <v>0.8127254425442173</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.6938822406336953</v>
+        <v>0.78467279854210881</v>
       </c>
       <c r="N15" s="0">
-        <v>0.81164882666360394</v>
+        <v>0.86146825822608775</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.51154205576349376</v>
+        <v>0.8410116085240309</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.71740911685432807</v>
+        <v>0.91578256637838673</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.64747056979648676</v>
+        <v>0.87932664416782247</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>0.6960535674296715</v>
+        <v>0.92557720079560313</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0.94541371900446713</v>
       </c>
       <c r="S17" s="0">
-        <v>0.89664538388572579</v>
+        <v>0.94126944770436249</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0.87932664416782247</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.78197021442514836</v>
+        <v>0.94541371900446713</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>0.59882672378183677</v>
+        <v>0.8725603943041218</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0.94126944770436249</v>
       </c>
       <c r="R19" s="0">
-        <v>0.58793365015887444</v>
+        <v>0.79883161319474971</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>0.63691156751227207</v>
+        <v>0.96712708720464002</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>0.56239039877922914</v>
+        <v>0.87648938525850062</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.51048672530812267</v>
+        <v>0.6232842992113159</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4514,16 +4514,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.90036899145105009</v>
+        <v>0.94955408323488699</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.60855481118811072</v>
+        <v>0.77981590113819843</v>
       </c>
       <c r="X22" s="0">
-        <v>0.52938271442818641</v>
+        <v>0.61220889509913823</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>0.99771497966381628</v>
       </c>
       <c r="N23" s="0">
-        <v>0.59197941158354372</v>
+        <v>0.61189477413833759</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.52810724620394223</v>
+        <v>0.60445379004906163</v>
       </c>
       <c r="V23" s="0">
         <v>0.77981590113819843</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="0">
-        <v>0.58241713955834518</v>
+        <v>0.86820098985602234</v>
       </c>
       <c r="Q24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.5234484925225098</v>
+        <v>0.9980501910018611</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.56888417787388967</v>
+        <v>0.78024172359698529</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.58322500426432267</v>
+        <v>0.91243446708133003</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0.63778248890812916</v>
+        <v>0.65502801248730369</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.67535172891177586</v>
+        <v>0.99261445222450839</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.73449318985564449</v>
+        <v>0.81684660662940323</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6389,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0.56121207119436167</v>
+        <v>0.71615630231735783</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.63679908589893741</v>
+        <v>0.87933856514370345</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.68132636503299637</v>
+        <v>0.83402955824088554</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>0.63896906785014318</v>
+        <v>0.78456532771741072</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.76253532016629499</v>
+        <v>0.79487719718357175</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.64919477212271837</v>
+        <v>0.74774099980268416</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.8656277666342963</v>
+        <v>0.87296416625057072</v>
       </c>
       <c r="AH32" s="0">
         <v>0.98316508805926861</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>0.81155105666194438</v>
+        <v>0.88726388685179902</v>
       </c>
       <c r="AK32" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.65654314149991611</v>
+        <v>0.84101106119879132</v>
       </c>
       <c r="AI33" s="0">
         <v>0.55829787128022634</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>0.66137013064161854</v>
+        <v>0.94423344620319161</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.51975620646817489</v>
+        <v>0.98316508805926861</v>
       </c>
       <c r="AG34" s="0">
         <v>0.84101106119879132</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.70813790588976699</v>
+        <v>0.74125751574776677</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>0.68074140721502885</v>
+        <v>0.80751400024692077</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0.64488243962499237</v>
+        <v>0.64617234765734044</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.55645458896988209</v>
+        <v>0.55829787128022634</v>
       </c>
       <c r="AH35" s="0">
         <v>0.74125751574776677</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0.52105921695482271</v>
+        <v>0.61878356578817817</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.65136915883932378</v>
+        <v>0.66771600722470748</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.91213281257128453</v>
+        <v>0.92877015593254453</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.56155386075473213</v>
+        <v>0.5850766578661758</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.73283650200633221</v>
+        <v>0.73807309235473939</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>0.55559041251670149</v>
+        <v>0.93793235923304541</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.61821001343544379</v>
+        <v>0.81269281761759382</v>
       </c>
       <c r="AK38" s="0">
         <v>0.5850766578661758</v>
@@ -7867,7 +7867,7 @@
         <v>0.92351232955530094</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.5144937623115744</v>
+        <v>0.67593221378135981</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="BL38" s="0">
-        <v>0.5452804681587391</v>
+        <v>0.75683761243475023</v>
       </c>
       <c r="BM38" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0.73807309235473939</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.72428255945302844</v>
+        <v>0.92351232955530094</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>0.75985290187871901</v>
+        <v>0.86091186359083594</v>
       </c>
       <c r="BG39" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0.78562686471828425</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.67202648037749846</v>
+        <v>0.74158838543627881</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.56852824245635869</v>
+        <v>0.66486725922874901</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.77089135340334858</v>
+        <v>0.78562686471828425</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0.98465188803309067</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.63785185776423992</v>
+        <v>0.99866059827701359</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="0">
-        <v>0.67056953295142452</v>
+        <v>0.9972574036435462</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0.74158838543627881</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.81766380027026875</v>
+        <v>0.98465188803309067</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.53938047587153926</v>
+        <v>0.59709194405555044</v>
       </c>
       <c r="AS42" s="0">
         <v>0.96709262795030537</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>0.5771560590870819</v>
+        <v>0.65552708742175503</v>
       </c>
       <c r="Z43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>0.55915202598716296</v>
+        <v>0.66337187239363882</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -9315,13 +9315,13 @@
         <v>0</v>
       </c>
       <c r="AP45" s="0">
-        <v>0.69607178268998926</v>
+        <v>0.96709262795030537</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.5990541823731006</v>
+        <v>0.83521692739218012</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.59483868190307965</v>
+        <v>0.62385884510891398</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="0">
-        <v>0.52663377309349579</v>
+        <v>0.80165398160104773</v>
       </c>
       <c r="AY45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.60323582045391233</v>
+        <v>0.90133384371731573</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="0">
-        <v>0.60399747392231462</v>
+        <v>0.8127254425442173</v>
       </c>
       <c r="O47" s="0">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>0.6921813395553218</v>
       </c>
       <c r="AX47" s="0">
-        <v>0.6476910497796553</v>
+        <v>0.94868466269389384</v>
       </c>
       <c r="AY47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.66036063435824899</v>
+        <v>0.69081036207489932</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.50861624342407286</v>
+        <v>0.6921813395553218</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.74552613605622697</v>
+        <v>0.75214697136221054</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.63036798122965243</v>
+        <v>0.71342519592618847</v>
       </c>
       <c r="AY49" s="0">
         <v>0.92804154008044648</v>
@@ -10363,7 +10363,7 @@
         <v>0.94868466269389384</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.74590140967429042</v>
+        <v>0.93556732386248975</v>
       </c>
       <c r="AW50" s="0">
         <v>0.71342519592618847</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.65507764567056659</v>
+        <v>0.92804154008044648</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.69298829017007857</v>
+        <v>0.96069922649680839</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.60331791862818007</v>
+        <v>0.93625236409024604</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0.93625236409024604</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.54454693111206609</v>
+        <v>0.68743585822039166</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.52350131272311917</v>
+        <v>0.85639515920703579</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.73136348318299449</v>
+        <v>0.80074732912500568</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.556041407577338</v>
+        <v>0.66057553619243559</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.65537296888397067</v>
+        <v>0.73224365861320995</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.74507312335809373</v>
+        <v>0.98469557628247806</v>
       </c>
       <c r="BB55" s="0">
         <v>0.66057553619243559</v>
@@ -11620,16 +11620,16 @@
         <v>0.73224365861320995</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.70316909305778186</v>
+        <v>0.71423783790969242</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.5392663354577345</v>
+        <v>0.8980615381748569</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.59685380996500581</v>
+        <v>0.93444283044573617</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.68480435417081664</v>
+        <v>0.7634863441585571</v>
       </c>
       <c r="BD57" s="0">
         <v>0.8980615381748569</v>
@@ -11838,7 +11838,7 @@
         <v>0.80688620642606934</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.60398109611060224</v>
+        <v>0.72846394610202392</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0.51171770577914311</v>
+        <v>0.72977245144525493</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0.93444283044573617</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.78569718466325211</v>
+        <v>0.80688620642606934</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.70611107558362263</v>
+        <v>0.90620950368919839</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.75911145946920011</v>
+        <v>0.92651498247517594</v>
       </c>
       <c r="BI59" s="0">
         <v>0.97876389468691305</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.86934347122723388</v>
+        <v>0.97787916735679392</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.68033997919291533</v>
+        <v>0.73893096427070981</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.56413724944208432</v>
+        <v>0.97876389468691305</v>
       </c>
       <c r="BH61" s="0">
         <v>0.97787916735679392</v>
@@ -12874,7 +12874,7 @@
         <v>0.73893096427070981</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.81793633628110918</v>
+        <v>0.86856815579248936</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.63166785991411434</v>
+        <v>0.70774189897667927</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13289,16 +13289,16 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.54297398423350374</v>
+        <v>0.74248375411772038</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.68180682171671259</v>
+        <v>0.71991660003647628</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.73385579978352422</v>
+        <v>0.77520769345322638</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>0.57085821456966879</v>
+        <v>0.79712068863079388</v>
       </c>
       <c r="BK65" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.62786169353187349</v>
+        <v>0.95679326541115284</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>0.90695645881986242</v>
+        <v>0.94538368002903839</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.61215793556677289</v>
+        <v>0.96581974988098274</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,12 +13925,12 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.71271681771664053</v>
+        <v>0.98778023373866053</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.5163870938895555</v>
+        <v>0.8728544145123851</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>0.71786796842703282</v>
+        <v>0.77178991545711673</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>0.8884681333340676</v>
+        <v>0.98814870016466205</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>
